--- a/word.xlsx
+++ b/word.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaihw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05_Personal\00_TeamProject\ETC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{724656D8-AFE3-4D46-AA4D-00F0DE7EE970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5006AC-8F68-45E4-AEEA-28B15126A5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12180" yWindow="1860" windowWidth="29085" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27075" yWindow="1890" windowWidth="29085" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,9 +262,6 @@
     <t>frigid</t>
   </si>
   <si>
-    <t>gagling</t>
-  </si>
-  <si>
     <t>gape</t>
   </si>
   <si>
@@ -604,9 +601,6 @@
     <t>tell punk</t>
   </si>
   <si>
-    <t>temper-proof</t>
-  </si>
-  <si>
     <t>thrash</t>
   </si>
   <si>
@@ -962,9 +956,6 @@
   </si>
   <si>
     <t>prefect</t>
-  </si>
-  <si>
-    <t>deep past</t>
   </si>
   <si>
     <t>grimace</t>
@@ -1279,6 +1270,18 @@
   </si>
   <si>
     <t>맛춘횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gangling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tamper-proof</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge past</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1656,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1667,13 +1670,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2558,7 +2561,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2580,7 +2583,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2591,7 +2594,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2602,7 +2605,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2613,7 +2616,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2668,7 +2671,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2690,7 +2693,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2701,7 +2704,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2712,7 +2715,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2723,7 +2726,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2734,7 +2737,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2767,7 +2770,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2778,7 +2781,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2811,7 +2814,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2844,7 +2847,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2855,7 +2858,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2866,7 +2869,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2877,7 +2880,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2899,7 +2902,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2910,7 +2913,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2921,7 +2924,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2932,7 +2935,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2965,7 +2968,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2976,7 +2979,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2998,7 +3001,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3020,7 +3023,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3031,7 +3034,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3075,7 +3078,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3108,7 +3111,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3130,7 +3133,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3141,7 +3144,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3152,7 +3155,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3163,7 +3166,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3174,7 +3177,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3185,7 +3188,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3196,7 +3199,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3207,7 +3210,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3229,7 +3232,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3240,7 +3243,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3251,7 +3254,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3262,7 +3265,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3273,7 +3276,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3295,7 +3298,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3317,7 +3320,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3328,7 +3331,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3339,7 +3342,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3383,7 +3386,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3394,7 +3397,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3405,7 +3408,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3416,7 +3419,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3427,7 +3430,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3449,7 +3452,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3460,7 +3463,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3471,7 +3474,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3482,7 +3485,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3504,7 +3507,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3515,7 +3518,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3526,7 +3529,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3548,7 +3551,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3559,7 +3562,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3570,7 +3573,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3581,7 +3584,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3592,7 +3595,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3603,7 +3606,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3614,7 +3617,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3625,7 +3628,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3636,7 +3639,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3647,7 +3650,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3658,7 +3661,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3669,7 +3672,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3680,7 +3683,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3691,7 +3694,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3702,7 +3705,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3713,7 +3716,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3724,7 +3727,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3735,7 +3738,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3757,7 +3760,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3768,7 +3771,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3779,7 +3782,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3790,7 +3793,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -3812,7 +3815,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -3823,7 +3826,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -3834,7 +3837,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -3845,7 +3848,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -3856,7 +3859,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -3867,7 +3870,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3878,7 +3881,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -3889,7 +3892,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -3900,7 +3903,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -3911,7 +3914,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -3922,7 +3925,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -3933,7 +3936,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3944,7 +3947,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -3955,7 +3958,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -3966,7 +3969,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -3988,7 +3991,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -3999,7 +4002,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -4010,7 +4013,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -4032,7 +4035,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -4054,7 +4057,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -4065,7 +4068,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -4076,7 +4079,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -4087,7 +4090,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -4098,7 +4101,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -4109,7 +4112,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -4120,7 +4123,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -4131,7 +4134,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -4142,7 +4145,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -4164,7 +4167,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -4175,7 +4178,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -4186,7 +4189,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -4197,7 +4200,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4208,7 +4211,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -4219,7 +4222,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -4230,7 +4233,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -4241,7 +4244,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -4252,7 +4255,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -4263,7 +4266,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -4274,7 +4277,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -4285,7 +4288,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -4296,7 +4299,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -4307,7 +4310,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -4318,7 +4321,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4329,7 +4332,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -4340,7 +4343,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -4351,7 +4354,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -4362,7 +4365,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -4373,7 +4376,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -4395,7 +4398,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -4406,7 +4409,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -4417,7 +4420,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -4428,7 +4431,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -4439,7 +4442,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -4450,7 +4453,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -4461,7 +4464,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -4472,7 +4475,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -4483,7 +4486,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -4494,7 +4497,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -4505,7 +4508,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -4516,7 +4519,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -4527,7 +4530,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -4538,7 +4541,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -4549,7 +4552,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -4560,7 +4563,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -4571,7 +4574,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -4582,7 +4585,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -4593,7 +4596,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -4615,7 +4618,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -4626,7 +4629,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -4648,7 +4651,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -4659,7 +4662,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -4670,7 +4673,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -4681,7 +4684,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -4692,7 +4695,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -4703,7 +4706,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -4714,7 +4717,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -4725,7 +4728,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -4736,7 +4739,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -4747,7 +4750,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -4758,7 +4761,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -4769,7 +4772,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -4780,7 +4783,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -4791,7 +4794,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -4802,7 +4805,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -4813,7 +4816,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -4824,7 +4827,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -4835,7 +4838,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -4846,7 +4849,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -4857,7 +4860,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -4868,7 +4871,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -4879,7 +4882,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -4890,7 +4893,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -4901,7 +4904,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -4912,7 +4915,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -4934,7 +4937,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -4945,7 +4948,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -4956,7 +4959,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -4967,7 +4970,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -4978,7 +4981,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -4989,7 +4992,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -5000,7 +5003,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -5011,7 +5014,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -5022,7 +5025,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -5033,7 +5036,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -5055,7 +5058,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -5066,7 +5069,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -5077,7 +5080,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -5088,7 +5091,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -5099,7 +5102,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -5110,7 +5113,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -5121,7 +5124,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -5132,7 +5135,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -5143,7 +5146,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -5154,7 +5157,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -5165,7 +5168,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -5176,7 +5179,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -5187,7 +5190,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -5198,7 +5201,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -5209,7 +5212,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>314</v>
+        <v>418</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -5231,7 +5234,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -5242,7 +5245,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -5253,7 +5256,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -5264,7 +5267,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -5275,7 +5278,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -5286,7 +5289,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -5297,7 +5300,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -5308,7 +5311,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -5341,7 +5344,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -5352,7 +5355,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -5363,7 +5366,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -5374,7 +5377,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -5385,7 +5388,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -5396,7 +5399,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -5407,7 +5410,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -5418,7 +5421,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -5429,7 +5432,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -5440,7 +5443,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -5451,7 +5454,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -5462,7 +5465,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -5484,7 +5487,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -5495,7 +5498,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -5506,7 +5509,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -5517,7 +5520,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -5528,7 +5531,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -5539,7 +5542,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -5550,7 +5553,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -5561,7 +5564,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -5572,7 +5575,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -5583,7 +5586,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -5594,7 +5597,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -5605,7 +5608,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -5616,7 +5619,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -5627,7 +5630,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -5638,7 +5641,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -5649,7 +5652,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -5660,7 +5663,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -5671,7 +5674,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -5682,7 +5685,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -5693,7 +5696,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -5704,7 +5707,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -5715,7 +5718,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -5726,7 +5729,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -5737,7 +5740,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -5748,7 +5751,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -5759,7 +5762,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -5770,7 +5773,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -5781,7 +5784,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -5792,7 +5795,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -5814,7 +5817,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -5825,7 +5828,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -5836,7 +5839,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -5847,7 +5850,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -5858,7 +5861,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -5869,7 +5872,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -5880,7 +5883,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -5891,7 +5894,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -5913,7 +5916,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -5924,7 +5927,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -5935,7 +5938,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -5946,7 +5949,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -5957,7 +5960,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -5968,7 +5971,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -5979,7 +5982,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -5990,7 +5993,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -6001,7 +6004,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -6012,7 +6015,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -6023,7 +6026,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -6034,7 +6037,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -6045,7 +6048,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -6056,7 +6059,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -6067,7 +6070,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -6078,7 +6081,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -6089,7 +6092,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -6100,7 +6103,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -6111,7 +6114,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -6122,7 +6125,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -6133,7 +6136,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -6144,7 +6147,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -6155,7 +6158,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -6166,7 +6169,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -6188,7 +6191,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -6199,7 +6202,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -6210,7 +6213,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -6221,7 +6224,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -6232,7 +6235,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -6243,7 +6246,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -6254,7 +6257,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -6265,7 +6268,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -6276,7 +6279,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -6287,7 +6290,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -6298,7 +6301,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -6309,7 +6312,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -6320,7 +6323,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -6331,7 +6334,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -6342,7 +6345,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -6353,7 +6356,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B427">
         <v>0</v>
